--- a/docs/paper_experiment/Accuracy/Accuracy_each_sim.xlsx
+++ b/docs/paper_experiment/Accuracy/Accuracy_each_sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/Accuracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FB7EFB-944A-7041-8A81-9881FA9143F2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7746AE-0819-A640-818E-5CBB958A2D41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6060" yWindow="-22620" windowWidth="30720" windowHeight="15000" activeTab="6" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2gram" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,6 @@
     <sheet name="Mr" sheetId="9" r:id="rId7"/>
     <sheet name="Mf" sheetId="10" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Mr!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Mr!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Mr!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Mr!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Mr!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Mr!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Mr!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Ma!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Ma!$B$1</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Ma!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Ma!$C$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Ma!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Ma!$D$1</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Ma!$D$2:$D$5</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>pre</t>
     <phoneticPr fontId="2"/>
@@ -107,6 +91,17 @@
   </si>
   <si>
     <t>ngram</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同じのを省いた？</t>
+    <rPh sb="0" eb="1">
+      <t>オナジノ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8829,8 +8824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35036FAA-6C7A-E24F-8C13-863F99A34C5E}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:N4"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9034,10 +9029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06977FB3-EF48-4845-ABC8-A88E54D736A3}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:N5"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9084,6 +9079,9 @@
       <c r="D2">
         <v>1957</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
@@ -9216,6 +9214,9 @@
       <c r="I5">
         <v>22213943</v>
       </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" t="s">
         <v>10</v>
       </c>
@@ -9230,6 +9231,20 @@
       <c r="N5" s="1">
         <f t="shared" si="6"/>
         <v>1.7673628493804102E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="G6">
+        <f t="shared" ref="G6:H6" si="7">SUM(G2:G5)</f>
+        <v>22220823</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>22390151</v>
+      </c>
+      <c r="I6">
+        <f>SUM(I2:I5)</f>
+        <v>22390151</v>
       </c>
     </row>
   </sheetData>
@@ -9845,7 +9860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223435F4-DD8B-BB48-9100-0FB9785AB61B}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -9931,6 +9946,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/docs/paper_experiment/Accuracy/Accuracy_each_sim.xlsx
+++ b/docs/paper_experiment/Accuracy/Accuracy_each_sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/Accuracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7746AE-0819-A640-818E-5CBB958A2D41}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6041B12-4D0F-5F4B-9F27-B575E00E15C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
+    <workbookView xWindow="8960" yWindow="-28340" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2gram" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>pre</t>
     <phoneticPr fontId="2"/>
@@ -102,6 +102,10 @@
     <rPh sb="0" eb="1">
       <t>オナジノ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -259,16 +263,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99957102682607635</c:v>
+                  <c:v>0.99945448673630277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15417617526243724</c:v>
+                  <c:v>0.47612962117754448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86305569749616762</c:v>
+                  <c:v>0.94219653179190754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26161710037174718</c:v>
+                  <c:v>0.63258747195439946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -330,16 +334,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9970164446944304</c:v>
+                  <c:v>0.99432743634605691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5279948204064217E-2</c:v>
+                  <c:v>7.7178887270265895E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87787429739397038</c:v>
+                  <c:v>0.94743497109826591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9144687911207734E-2</c:v>
+                  <c:v>0.1427307980134703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,16 +405,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.94176600098247665</c:v>
+                  <c:v>0.8766335124130602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2492673824866965E-3</c:v>
+                  <c:v>3.8313591181111523E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88877392653905851</c:v>
+                  <c:v>0.95177023121387283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4950277350361872E-3</c:v>
+                  <c:v>7.6319955734715367E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,6 +493,7 @@
         <c:axId val="1466634047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -689,16 +694,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99974379886829579</c:v>
+                  <c:v>0.99980030559186661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19427168576104747</c:v>
+                  <c:v>0.77152209492635027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60654062340316817</c:v>
+                  <c:v>0.85151734104046239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2942853601090864</c:v>
+                  <c:v>0.80954834277863641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,16 +765,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99220027591595961</c:v>
+                  <c:v>0.98447983703207653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9351730727667746E-3</c:v>
+                  <c:v>2.9135858215273466E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8027593254982115</c:v>
+                  <c:v>0.93244219653179194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7673628493804102E-2</c:v>
+                  <c:v>5.6506080807417383E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,16 +836,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99220027591595961</c:v>
+                  <c:v>0.91114877314436127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9351730727667746E-3</c:v>
+                  <c:v>5.2054341424848938E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8027593254982115</c:v>
+                  <c:v>0.93244219653179194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7673628493804102E-2</c:v>
+                  <c:v>1.0353071424560165E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8201,16 +8206,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>885292</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>694791</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8824,8 +8829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35036FAA-6C7A-E24F-8C13-863F99A34C5E}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8864,43 +8869,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1957</v>
+        <v>5536</v>
       </c>
       <c r="C2">
-        <v>1957</v>
+        <v>5536</v>
       </c>
       <c r="D2">
-        <v>1957</v>
+        <v>5536</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
         <f>B4</f>
-        <v>1689</v>
+        <v>5216</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2" si="0">C4</f>
-        <v>1718</v>
+        <f t="shared" ref="H2:I2" si="0">C4</f>
+        <v>5245</v>
       </c>
       <c r="I2">
-        <f>C4</f>
-        <v>1718</v>
+        <f t="shared" si="0"/>
+        <v>5269</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1">
         <f>(G2+G5)/(G2+G3+G4+G5)</f>
-        <v>0.99957102682607635</v>
+        <v>0.99945448673630277</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:N2" si="1">(H2+H5)/(H2+H3+H4+H5)</f>
-        <v>0.9970164446944304</v>
+        <v>0.99432743634605691</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="1"/>
-        <v>0.94176600098247665</v>
+        <v>0.8766335124130602</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8921,30 +8926,30 @@
       </c>
       <c r="G3">
         <f>B3-B4</f>
-        <v>9266</v>
+        <v>5739</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I3" si="2">C3-C4</f>
-        <v>66241</v>
+        <v>62714</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>1373488</v>
+        <v>1369961</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="1">
         <f>G2/(G2+G3)</f>
-        <v>0.15417617526243724</v>
+        <v>0.47612962117754448</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:N3" si="3">H2/(H2+H3)</f>
-        <v>2.5279948204064217E-2</v>
+        <v>7.7178887270265895E-2</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="3"/>
-        <v>1.2492673824866965E-3</v>
+        <v>3.8313591181111523E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8952,43 +8957,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1689</v>
+        <v>5216</v>
       </c>
       <c r="C4">
-        <v>1718</v>
+        <v>5245</v>
       </c>
       <c r="D4">
-        <v>1742</v>
+        <v>5269</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
         <f>B2-B4</f>
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:I4" si="4">C2-C4</f>
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="1">
         <f>G2/(G2+G4)</f>
-        <v>0.86305569749616762</v>
+        <v>0.94219653179190754</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:N4" si="5">H2/(H2+H4)</f>
-        <v>0.87787429739397038</v>
+        <v>0.94743497109826591</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>0.88877392653905851</v>
+        <v>0.95177023121387283</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8996,28 +9001,31 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>22213943</v>
+        <f>11106971-G2-G3-G4</f>
+        <v>11095696</v>
       </c>
       <c r="H5">
-        <v>22213943</v>
+        <f t="shared" ref="H5:I5" si="6">11106971-H2-H3-H4</f>
+        <v>11038721</v>
       </c>
       <c r="I5">
-        <v>22213943</v>
+        <f t="shared" si="6"/>
+        <v>9731474</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="1">
         <f>2*(L3*L4)/(L3+L4)</f>
-        <v>0.26161710037174718</v>
+        <v>0.63258747195439946</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:N5" si="6">2*(M3*M4)/(M3+M4)</f>
-        <v>4.9144687911207734E-2</v>
+        <f t="shared" ref="M5:N5" si="7">2*(M3*M4)/(M3+M4)</f>
+        <v>0.1427307980134703</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4950277350361872E-3</v>
+        <f t="shared" si="7"/>
+        <v>7.6319955734715367E-3</v>
       </c>
     </row>
   </sheetData>
@@ -9029,10 +9037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06977FB3-EF48-4845-ABC8-A88E54D736A3}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9071,13 +9079,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1957</v>
+        <v>5536</v>
       </c>
       <c r="C2">
-        <v>1957</v>
+        <v>5536</v>
       </c>
       <c r="D2">
-        <v>1957</v>
+        <v>5536</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -9087,30 +9095,30 @@
       </c>
       <c r="G2">
         <f>B4</f>
-        <v>1187</v>
+        <v>4714</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:I2" si="0">C4</f>
-        <v>1571</v>
+        <v>5162</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>1571</v>
+        <v>5162</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1">
         <f>(G2+G5)/(G2+G3+G4+G5)</f>
-        <v>0.99974379886829579</v>
+        <v>0.99980030559186661</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:N2" si="1">(H2+H5)/(H2+H3+H4+H5)</f>
-        <v>0.99220027591595961</v>
+        <v>0.98447983703207653</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="1"/>
-        <v>0.99220027591595961</v>
+        <v>0.91114877314436127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -9121,40 +9129,40 @@
         <v>6110</v>
       </c>
       <c r="C3">
-        <v>175822</v>
+        <v>177170</v>
       </c>
       <c r="D3">
-        <v>175822</v>
+        <v>991656</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
         <f>B3-B4</f>
-        <v>4923</v>
+        <v>1396</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I3" si="2">C3-C4</f>
-        <v>174251</v>
+        <v>172008</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>174251</v>
+        <v>986494</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="1">
         <f>G2/(G2+G3)</f>
-        <v>0.19427168576104747</v>
+        <v>0.77152209492635027</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:N3" si="3">H2/(H2+H3)</f>
-        <v>8.9351730727667746E-3</v>
+        <v>2.9135858215273466E-2</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="3"/>
-        <v>8.9351730727667746E-3</v>
+        <v>5.2054341424848938E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -9162,43 +9170,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1187</v>
+        <v>4714</v>
       </c>
       <c r="C4">
-        <v>1571</v>
+        <v>5162</v>
       </c>
       <c r="D4">
-        <v>1571</v>
+        <v>5162</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
         <f>B2-B4</f>
-        <v>770</v>
+        <v>822</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:I4" si="4">C2-C4</f>
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="1">
         <f>G2/(G2+G4)</f>
-        <v>0.60654062340316817</v>
+        <v>0.85151734104046239</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:N4" si="5">H2/(H2+H4)</f>
-        <v>0.8027593254982115</v>
+        <v>0.93244219653179194</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>0.8027593254982115</v>
+        <v>0.93244219653179194</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -9206,13 +9214,16 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>22213943</v>
+        <f>11106971-G2-G3-G4</f>
+        <v>11100039</v>
       </c>
       <c r="H5">
-        <v>22213943</v>
+        <f t="shared" ref="H5:I5" si="6">11106971-H2-H3-H4</f>
+        <v>10929427</v>
       </c>
       <c r="I5">
-        <v>22213943</v>
+        <f t="shared" si="6"/>
+        <v>10114941</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -9222,34 +9233,37 @@
       </c>
       <c r="L5" s="1">
         <f>2*(L3*L4)/(L3+L4)</f>
-        <v>0.2942853601090864</v>
+        <v>0.80954834277863641</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:N5" si="6">2*(M3*M4)/(M3+M4)</f>
-        <v>1.7673628493804102E-2</v>
+        <f t="shared" ref="M5:N5" si="7">2*(M3*M4)/(M3+M4)</f>
+        <v>5.6506080807417383E-2</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="6"/>
-        <v>1.7673628493804102E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.0353071424560165E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="G6">
-        <f t="shared" ref="G6:H6" si="7">SUM(G2:G5)</f>
-        <v>22220823</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="7"/>
-        <v>22390151</v>
-      </c>
-      <c r="I6">
-        <f>SUM(I2:I5)</f>
-        <v>22390151</v>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>22207011</v>
+      </c>
+      <c r="B8">
+        <v>22036399</v>
+      </c>
+      <c r="C8">
+        <v>21221913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="G13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/docs/paper_experiment/Accuracy/Accuracy_each_sim.xlsx
+++ b/docs/paper_experiment/Accuracy/Accuracy_each_sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/Accuracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6041B12-4D0F-5F4B-9F27-B575E00E15C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C957C711-67EF-9244-9471-46A4C0449288}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="-28340" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
+    <workbookView xWindow="-8240" yWindow="-20020" windowWidth="28800" windowHeight="17540" activeTab="8" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2gram" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,16 @@
     <sheet name="Mp" sheetId="8" r:id="rId6"/>
     <sheet name="Mr" sheetId="9" r:id="rId7"/>
     <sheet name="Mf" sheetId="10" r:id="rId8"/>
+    <sheet name="BM25 vs edit" sheetId="12" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'BM25 vs edit'!$H$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'BM25 vs edit'!$H$7</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'BM25 vs edit'!$H$8</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'BM25 vs edit'!$I$6:$K$6</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'BM25 vs edit'!$I$7:$K$7</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'BM25 vs edit'!$I$8:$K$8</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
   <si>
     <t>pre</t>
     <phoneticPr fontId="2"/>
@@ -622,6 +631,1225 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Mp</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$I$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$I$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.47612962117754448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7178887270265895E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8313591181111523E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B33-4549-8FFF-832AABEFDF2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$I$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$I$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77152209492635027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9135858215273466E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2054341424848938E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B33-4549-8FFF-832AABEFDF2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="233245759"/>
+        <c:axId val="267507823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="233245759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267507823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="267507823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233245759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Mr</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$C$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.94219653179190754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94743497109826591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95177023121387283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD24-8E42-95CA-8CF9D5F064F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85151734104046239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93244219653179194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93244219653179194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD24-8E42-95CA-8CF9D5F064F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="312369119"/>
+        <c:axId val="261237711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="312369119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261237711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="261237711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312369119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Mf</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$I$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$I$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.63258747195439946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1427307980134703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6319955734715367E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2546-1146-8FE7-73FF90E05732}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$I$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$I$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80954834277863641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6506080807417383E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0353071424560165E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2546-1146-8FE7-73FF90E05732}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="233314127"/>
+        <c:axId val="1936816784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="233314127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1936816784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1936816784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233314127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -924,6 +2152,7 @@
         <c:axId val="1461636799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3858,7 +5087,533 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Ma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$C$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$C$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99945448673630277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99432743634605691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8766335124130602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFF2-114B-9BCD-7993E6286AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$C$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99980030559186661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98447983703207653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91114877314436127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFF2-114B-9BCD-7993E6286AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="232313599"/>
+        <c:axId val="232315295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="232313599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232315295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232315295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232313599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4178,6 +5933,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4681,7 +6476,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5184,7 +6979,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5687,7 +7482,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6190,7 +7985,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6693,7 +8488,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7196,7 +8991,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7699,7 +9494,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8530,6 +12337,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BAED3D-10BC-5244-874E-5A9A6F764357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE0B218-AE72-4A43-BCC2-4AE29F854E45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB25325-5AAD-FE42-A874-A283C3F6ABE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93905C08-8296-1043-A67B-80A3168FB38D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -8829,8 +12785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35036FAA-6C7A-E24F-8C13-863F99A34C5E}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9039,8 +12995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06977FB3-EF48-4845-ABC8-A88E54D736A3}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10057,4 +14013,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8079D813-A613-E549-8B33-6FBC6C5C3560}">
+  <dimension ref="A2:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99945448673630277</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99432743634605691</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8766335124130602</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.47612962117754448</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7.7178887270265895E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.8313591181111523E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.99980030559186661</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.98447983703207653</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.91114877314436127</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.77152209492635027</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.9135858215273466E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5.2054341424848938E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0.75</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.94219653179190754</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.94743497109826591</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.95177023121387283</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.63258747195439946</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.1427307980134703</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7.6319955734715367E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.85151734104046239</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.93244219653179194</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.93244219653179194</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.80954834277863641</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5.6506080807417383E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.0353071424560165E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/paper_experiment/Accuracy/Accuracy_each_sim.xlsx
+++ b/docs/paper_experiment/Accuracy/Accuracy_each_sim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/Accuracy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/Accuracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C957C711-67EF-9244-9471-46A4C0449288}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A092192F-BD11-5C4F-BD07-4FF29A2F65CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8240" yWindow="-20020" windowWidth="28800" windowHeight="17540" activeTab="8" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
+    <workbookView xWindow="1440" yWindow="-19540" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2gram" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,6 @@
     <sheet name="Mf" sheetId="10" r:id="rId8"/>
     <sheet name="BM25 vs edit" sheetId="12" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'BM25 vs edit'!$H$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'BM25 vs edit'!$H$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'BM25 vs edit'!$H$8</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'BM25 vs edit'!$I$6:$K$6</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'BM25 vs edit'!$I$7:$K$7</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'BM25 vs edit'!$I$8:$K$8</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
   <si>
     <t>pre</t>
     <phoneticPr fontId="2"/>
@@ -272,16 +264,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99945448673630277</c:v>
+                  <c:v>0.99941640254575259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47612962117754448</c:v>
+                  <c:v>0.52956904687008488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94219653179190754</c:v>
+                  <c:v>0.93088194636439037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63258747195439946</c:v>
+                  <c:v>0.67508771929824551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -343,16 +335,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99432743634605691</c:v>
+                  <c:v>0.9939246262549889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7178887270265895E-2</c:v>
+                  <c:v>9.1620232914412764E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94743497109826591</c:v>
+                  <c:v>0.93419961293889964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1427307980134703</c:v>
+                  <c:v>0.16687449842582877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,16 +406,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8766335124130602</c:v>
+                  <c:v>0.85193568975736045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8313591181111523E-3</c:v>
+                  <c:v>4.0943040773429125E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95177023121387283</c:v>
+                  <c:v>0.9343378490461709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6319955734715367E-3</c:v>
+                  <c:v>8.1528819152939819E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,11 +705,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BM25 vs edit'!$H$3</c:f>
+              <c:f>'BM25 vs edit'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BM25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -733,44 +725,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'BM25 vs edit'!$I$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$3:$H$5</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BM25 vs edit'!$I$3:$K$3</c:f>
+              <c:f>'BM25 vs edit'!$I$3:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.47612962117754448</c:v>
+                  <c:v>0.52956904687008488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7178887270265895E-2</c:v>
+                  <c:v>0.79641185647425894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8313591181111523E-3</c:v>
+                  <c:v>3.9948500837629856E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B33-4549-8FFF-832AABEFDF2F}"/>
+              <c16:uniqueId val="{00000000-2E0A-414E-BBBA-AEAF25CF76A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -779,11 +770,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BM25 vs edit'!$H$4</c:f>
+              <c:f>'BM25 vs edit'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>edit</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -799,44 +790,108 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'BM25 vs edit'!$I$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$3:$H$5</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BM25 vs edit'!$I$4:$K$4</c:f>
+              <c:f>'BM25 vs edit'!$J$3:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.77152209492635027</c:v>
+                  <c:v>9.1620232914412764E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9135858215273466E-2</c:v>
+                  <c:v>3.0813682456601911E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2054341424848938E-3</c:v>
+                  <c:v>7.1096710144108899E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B33-4549-8FFF-832AABEFDF2F}"/>
+              <c16:uniqueId val="{00000001-2E0A-414E-BBBA-AEAF25CF76A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$3:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>edit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0943040773429125E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6362504364398823E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1095132208124972E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E0A-414E-BBBA-AEAF25CF76A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -850,11 +905,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="233245759"/>
-        <c:axId val="267507823"/>
+        <c:axId val="394343216"/>
+        <c:axId val="433586784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="233245759"/>
+        <c:axId val="394343216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +952,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267507823"/>
+        <c:crossAx val="433586784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267507823"/>
+        <c:axId val="433586784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -957,7 +1012,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233245759"/>
+        <c:crossAx val="394343216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1119,11 +1174,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BM25 vs edit'!$B$7</c:f>
+              <c:f>'BM25 vs edit'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BM25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,44 +1194,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'BM25 vs edit'!$C$6:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$7:$B$9</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BM25 vs edit'!$C$7:$E$7</c:f>
+              <c:f>'BM25 vs edit'!$C$7:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.94219653179190754</c:v>
+                  <c:v>0.93088194636439037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94743497109826591</c:v>
+                  <c:v>0.84683439314348907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95177023121387283</c:v>
+                  <c:v>0.93419961293889964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD24-8E42-95CA-8CF9D5F064F9}"/>
+              <c16:uniqueId val="{00000000-CBC4-4642-90E4-CF8E1FFAECD0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1185,11 +1239,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BM25 vs edit'!$B$8</c:f>
+              <c:f>'BM25 vs edit'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>edit</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1205,44 +1259,108 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'BM25 vs edit'!$C$6:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$7:$B$9</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BM25 vs edit'!$C$8:$E$8</c:f>
+              <c:f>'BM25 vs edit'!$D$7:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.85151734104046239</c:v>
+                  <c:v>0.93419961293889964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93244219653179194</c:v>
+                  <c:v>0.92286425214265966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93244219653179194</c:v>
+                  <c:v>0.9343378490461709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD24-8E42-95CA-8CF9D5F064F9}"/>
+              <c16:uniqueId val="{00000001-CBC4-4642-90E4-CF8E1FFAECD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$7:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>edit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$E$7:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9343378490461709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9343378490461709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9343378490461709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBC4-4642-90E4-CF8E1FFAECD0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1256,11 +1374,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="312369119"/>
-        <c:axId val="261237711"/>
+        <c:axId val="394705776"/>
+        <c:axId val="433144880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312369119"/>
+        <c:axId val="394705776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1421,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261237711"/>
+        <c:crossAx val="433144880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1311,7 +1429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261237711"/>
+        <c:axId val="433144880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1364,7 +1482,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312369119"/>
+        <c:crossAx val="394705776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1526,11 +1644,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BM25 vs edit'!$H$7</c:f>
+              <c:f>'BM25 vs edit'!$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BM25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1546,44 +1664,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'BM25 vs edit'!$I$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$7:$H$9</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BM25 vs edit'!$I$7:$K$7</c:f>
+              <c:f>'BM25 vs edit'!$I$7:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.63258747195439946</c:v>
+                  <c:v>0.67508771929824551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1427307980134703</c:v>
+                  <c:v>0.8208495243199786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6319955734715367E-3</c:v>
+                  <c:v>7.9556798704111809E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2546-1146-8FE7-73FF90E05732}"/>
+              <c16:uniqueId val="{00000000-BDE2-A646-BD40-692C6B5852FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1592,11 +1709,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BM25 vs edit'!$H$8</c:f>
+              <c:f>'BM25 vs edit'!$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>edit</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1612,44 +1729,108 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'BM25 vs edit'!$I$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$7:$H$9</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BM25 vs edit'!$I$8:$K$8</c:f>
+              <c:f>'BM25 vs edit'!$J$7:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.80954834277863641</c:v>
+                  <c:v>0.16687449842582877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6506080807417383E-2</c:v>
+                  <c:v>5.963616223966127E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0353071424560165E-2</c:v>
+                  <c:v>1.4208530310532801E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2546-1146-8FE7-73FF90E05732}"/>
+              <c16:uniqueId val="{00000001-BDE2-A646-BD40-692C6B5852FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$H$7:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>edit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$K$7:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.1528819152939819E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.925264474626259E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4208215203063543E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDE2-A646-BD40-692C6B5852FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1663,11 +1844,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="233314127"/>
-        <c:axId val="1936816784"/>
+        <c:axId val="400632880"/>
+        <c:axId val="430895520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="233314127"/>
+        <c:axId val="400632880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,7 +1891,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1936816784"/>
+        <c:crossAx val="430895520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1718,7 +1899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1936816784"/>
+        <c:axId val="430895520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1770,7 +1951,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233314127"/>
+        <c:crossAx val="400632880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1922,16 +2103,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99980030559186661</c:v>
+                  <c:v>0.99975925029425217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77152209492635027</c:v>
+                  <c:v>0.79641185647425894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85151734104046239</c:v>
+                  <c:v>0.84683439314348907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80954834277863641</c:v>
+                  <c:v>0.8208495243199786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,16 +2174,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.98447983703207653</c:v>
+                  <c:v>0.98104442696393102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9135858215273466E-2</c:v>
+                  <c:v>3.0813682456601911E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93244219653179194</c:v>
+                  <c:v>0.92286425214265966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6506080807417383E-2</c:v>
+                  <c:v>5.963616223966127E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,16 +2245,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.91114877314436127</c:v>
+                  <c:v>0.36905795468449498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2054341424848938E-3</c:v>
+                  <c:v>9.6362504364398823E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93244219653179194</c:v>
+                  <c:v>0.9343378490461709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0353071424560165E-2</c:v>
+                  <c:v>1.925264474626259E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,16 +2534,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.94618636991349137</c:v>
+                  <c:v>0.92949932395907198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3300964883066173E-4</c:v>
+                  <c:v>3.9948500837629856E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71341463414634143</c:v>
+                  <c:v>0.93419961293889964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.664076259889836E-3</c:v>
+                  <c:v>7.9556798704111809E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,16 +2605,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.94618636991349137</c:v>
+                  <c:v>0.70050033121396116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3300964883066173E-4</c:v>
+                  <c:v>7.1096710144108899E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71341463414634143</c:v>
+                  <c:v>0.9343378490461709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.664076259889836E-3</c:v>
+                  <c:v>1.4208530310532801E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,16 +2676,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.94618636991349137</c:v>
+                  <c:v>0.70049567172291716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3300964883066173E-4</c:v>
+                  <c:v>7.1095132208124972E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71341463414634143</c:v>
+                  <c:v>0.9343378490461709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.664076259889836E-3</c:v>
+                  <c:v>1.4208215203063543E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5124,6 +5305,7 @@
               <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>Ma</a:t>
             </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5168,11 +5350,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BM25 vs edit'!$B$3</c:f>
+              <c:f>'BM25 vs edit'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BM25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5188,44 +5370,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'BM25 vs edit'!$C$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$3:$B$5</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BM25 vs edit'!$C$3:$E$3</c:f>
+              <c:f>'BM25 vs edit'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.99945448673630277</c:v>
+                  <c:v>0.99941640254575259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99432743634605691</c:v>
+                  <c:v>0.99975925029425217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8766335124130602</c:v>
+                  <c:v>0.92949932395907198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FFF2-114B-9BCD-7993E6286AD7}"/>
+              <c16:uniqueId val="{00000000-3DA6-4F46-803F-C39FF615EBFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5234,11 +5415,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BM25 vs edit'!$B$4</c:f>
+              <c:f>'BM25 vs edit'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>edit</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5254,44 +5435,108 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'BM25 vs edit'!$C$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$3:$B$5</c:f>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>BM25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>edit</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BM25 vs edit'!$C$4:$E$4</c:f>
+              <c:f>'BM25 vs edit'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.99980030559186661</c:v>
+                  <c:v>0.9939246262549889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98447983703207653</c:v>
+                  <c:v>0.98104442696393102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91114877314436127</c:v>
+                  <c:v>0.70050033121396116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FFF2-114B-9BCD-7993E6286AD7}"/>
+              <c16:uniqueId val="{00000001-3DA6-4F46-803F-C39FF615EBFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BM25 vs edit'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BM25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>edit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BM25 vs edit'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85193568975736045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36905795468449498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70049567172291716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DA6-4F46-803F-C39FF615EBFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5305,11 +5550,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="232313599"/>
-        <c:axId val="232315295"/>
+        <c:axId val="430521504"/>
+        <c:axId val="430523200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="232313599"/>
+        <c:axId val="430521504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5352,7 +5597,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232315295"/>
+        <c:crossAx val="430523200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5360,11 +5605,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232315295"/>
+        <c:axId val="430523200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5413,7 +5657,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232313599"/>
+        <c:crossAx val="430521504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12341,23 +12585,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BAED3D-10BC-5244-874E-5A9A6F764357}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE45C3B1-8D09-354B-BBE9-E5264F5E9AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12377,23 +12621,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="7" name="グラフ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE0B218-AE72-4A43-BCC2-4AE29F854E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F7BB78-B132-3F49-AAC5-505767585CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12413,23 +12657,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB25325-5AAD-FE42-A874-A283C3F6ABE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1965A6ED-A71F-EE4A-A9DE-B91E4D15C811}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12449,23 +12693,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>869950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5">
+        <xdr:cNvPr id="9" name="グラフ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93905C08-8296-1043-A67B-80A3168FB38D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC96555-C7CD-2049-99AF-2F7D98D5E05C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12786,7 +13030,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:N5"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12825,43 +13069,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="C2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="D2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
         <f>B4</f>
-        <v>5216</v>
+        <v>6734</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:I2" si="0">C4</f>
-        <v>5245</v>
+        <v>6758</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>5269</v>
+        <v>6759</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1">
         <f>(G2+G5)/(G2+G3+G4+G5)</f>
-        <v>0.99945448673630277</v>
+        <v>0.99941640254575259</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:N2" si="1">(H2+H5)/(H2+H3+H4+H5)</f>
-        <v>0.99432743634605691</v>
+        <v>0.9939246262549889</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="1"/>
-        <v>0.8766335124130602</v>
+        <v>0.85193568975736045</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12869,43 +13113,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10955</v>
+        <v>12716</v>
       </c>
       <c r="C3">
-        <v>67959</v>
+        <v>73761</v>
       </c>
       <c r="D3">
-        <v>1375230</v>
+        <v>1650830</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
         <f>B3-B4</f>
-        <v>5739</v>
+        <v>5982</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I3" si="2">C3-C4</f>
-        <v>62714</v>
+        <v>67003</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>1369961</v>
+        <v>1644071</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="1">
         <f>G2/(G2+G3)</f>
-        <v>0.47612962117754448</v>
+        <v>0.52956904687008488</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:N3" si="3">H2/(H2+H3)</f>
-        <v>7.7178887270265895E-2</v>
+        <v>9.1620232914412764E-2</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="3"/>
-        <v>3.8313591181111523E-3</v>
+        <v>4.0943040773429125E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12913,43 +13157,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5216</v>
+        <v>6734</v>
       </c>
       <c r="C4">
-        <v>5245</v>
+        <v>6758</v>
       </c>
       <c r="D4">
-        <v>5269</v>
+        <v>6759</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
         <f>B2-B4</f>
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:I4" si="4">C2-C4</f>
-        <v>291</v>
+        <v>476</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>267</v>
+        <v>475</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="1">
         <f>G2/(G2+G4)</f>
-        <v>0.94219653179190754</v>
+        <v>0.93088194636439037</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:N4" si="5">H2/(H2+H4)</f>
-        <v>0.94743497109826591</v>
+        <v>0.93419961293889964</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>0.95177023121387283</v>
+        <v>0.9343378490461709</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12958,30 +13202,30 @@
       </c>
       <c r="G5">
         <f>11106971-G2-G3-G4</f>
-        <v>11095696</v>
+        <v>11093755</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I5" si="6">11106971-H2-H3-H4</f>
-        <v>11038721</v>
+        <v>11032734</v>
       </c>
       <c r="I5">
         <f t="shared" si="6"/>
-        <v>9731474</v>
+        <v>9455666</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="1">
         <f>2*(L3*L4)/(L3+L4)</f>
-        <v>0.63258747195439946</v>
+        <v>0.67508771929824551</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5:N5" si="7">2*(M3*M4)/(M3+M4)</f>
-        <v>0.1427307980134703</v>
+        <v>0.16687449842582877</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="7"/>
-        <v>7.6319955734715367E-3</v>
+        <v>8.1528819152939819E-3</v>
       </c>
     </row>
   </sheetData>
@@ -12996,7 +13240,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:N5"/>
+      <selection activeCell="D3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13035,13 +13279,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="C2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="D2">
-        <v>5536</v>
+        <v>7234</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -13051,30 +13295,30 @@
       </c>
       <c r="G2">
         <f>B4</f>
-        <v>4714</v>
+        <v>6126</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:I2" si="0">C4</f>
-        <v>5162</v>
+        <v>6676</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>5162</v>
+        <v>6759</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1">
         <f>(G2+G5)/(G2+G3+G4+G5)</f>
-        <v>0.99980030559186661</v>
+        <v>0.99975925029425217</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:N2" si="1">(H2+H5)/(H2+H3+H4+H5)</f>
-        <v>0.98447983703207653</v>
+        <v>0.98104442696393102</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="1"/>
-        <v>0.91114877314436127</v>
+        <v>0.36905795468449498</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13082,43 +13326,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6110</v>
+        <v>7692</v>
       </c>
       <c r="C3">
-        <v>177170</v>
+        <v>216657</v>
       </c>
       <c r="D3">
-        <v>991656</v>
+        <v>7014139</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
         <f>B3-B4</f>
-        <v>1396</v>
+        <v>1566</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I3" si="2">C3-C4</f>
-        <v>172008</v>
+        <v>209981</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>986494</v>
+        <v>7007380</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="1">
         <f>G2/(G2+G3)</f>
-        <v>0.77152209492635027</v>
+        <v>0.79641185647425894</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:N3" si="3">H2/(H2+H3)</f>
-        <v>2.9135858215273466E-2</v>
+        <v>3.0813682456601911E-2</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="3"/>
-        <v>5.2054341424848938E-3</v>
+        <v>9.6362504364398823E-4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13126,43 +13370,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4714</v>
+        <v>6126</v>
       </c>
       <c r="C4">
-        <v>5162</v>
+        <v>6676</v>
       </c>
       <c r="D4">
-        <v>5162</v>
+        <v>6759</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
         <f>B2-B4</f>
-        <v>822</v>
+        <v>1108</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:I4" si="4">C2-C4</f>
-        <v>374</v>
+        <v>558</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>374</v>
+        <v>475</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="1">
         <f>G2/(G2+G4)</f>
-        <v>0.85151734104046239</v>
+        <v>0.84683439314348907</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:N4" si="5">H2/(H2+H4)</f>
-        <v>0.93244219653179194</v>
+        <v>0.92286425214265966</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>0.93244219653179194</v>
+        <v>0.9343378490461709</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13171,15 +13415,15 @@
       </c>
       <c r="G5">
         <f>11106971-G2-G3-G4</f>
-        <v>11100039</v>
+        <v>11098171</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I5" si="6">11106971-H2-H3-H4</f>
-        <v>10929427</v>
+        <v>10889756</v>
       </c>
       <c r="I5">
         <f t="shared" si="6"/>
-        <v>10114941</v>
+        <v>4092357</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -13189,15 +13433,15 @@
       </c>
       <c r="L5" s="1">
         <f>2*(L3*L4)/(L3+L4)</f>
-        <v>0.80954834277863641</v>
+        <v>0.8208495243199786</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5:N5" si="7">2*(M3*M4)/(M3+M4)</f>
-        <v>5.6506080807417383E-2</v>
+        <v>5.963616223966127E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="7"/>
-        <v>1.0353071424560165E-2</v>
+        <v>1.925264474626259E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -13228,8 +13472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8E0B0C-451C-1449-A627-EEA59CCA112C}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13268,43 +13512,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1476</v>
+        <v>7234</v>
       </c>
       <c r="C2">
-        <v>1476</v>
+        <v>7234</v>
       </c>
       <c r="D2">
-        <v>1476</v>
+        <v>7234</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
         <f>B4</f>
-        <v>1053</v>
+        <v>6758</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:I2" si="0">C4</f>
-        <v>1053</v>
+        <v>6759</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>1053</v>
+        <v>6759</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="1">
         <f>(G2+G5)/(G2+G3+G4+G5)</f>
-        <v>0.94618636991349137</v>
+        <v>0.92949932395907198</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:N2" si="1">(H2+H5)/(H2+H3+H4+H5)</f>
-        <v>0.94618636991349137</v>
+        <v>0.70050033121396116</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="1"/>
-        <v>0.94618636991349137</v>
+        <v>0.70049567172291716</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13312,43 +13556,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1264091</v>
+        <v>1691678</v>
       </c>
       <c r="C3">
-        <v>1264091</v>
+        <v>9506769</v>
       </c>
       <c r="D3">
-        <v>1264091</v>
+        <v>9506980</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
         <f>B3-B4</f>
-        <v>1263038</v>
+        <v>1684920</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I3" si="2">C3-C4</f>
-        <v>1263038</v>
+        <v>9500010</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>1263038</v>
+        <v>9500221</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="1">
         <f>G2/(G2+G3)</f>
-        <v>8.3300964883066173E-4</v>
+        <v>3.9948500837629856E-3</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:N3" si="3">H2/(H2+H3)</f>
-        <v>8.3300964883066173E-4</v>
+        <v>7.1096710144108899E-4</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="3"/>
-        <v>8.3300964883066173E-4</v>
+        <v>7.1095132208124972E-4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13356,43 +13600,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1053</v>
+        <v>6758</v>
       </c>
       <c r="C4">
-        <v>1053</v>
+        <v>6759</v>
       </c>
       <c r="D4">
-        <v>1053</v>
+        <v>6759</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
         <f>B2-B4</f>
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:I4" si="4">C2-C4</f>
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="1">
         <f>G2/(G2+G4)</f>
-        <v>0.71341463414634143</v>
+        <v>0.93419961293889964</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:N4" si="5">H2/(H2+H4)</f>
-        <v>0.71341463414634143</v>
+        <v>0.9343378490461709</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>0.71341463414634143</v>
+        <v>0.9343378490461709</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13413,15 +13657,15 @@
       </c>
       <c r="L5" s="1">
         <f>2*(L3*L4)/(L3+L4)</f>
-        <v>1.664076259889836E-3</v>
+        <v>7.9556798704111809E-3</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5:N5" si="6">2*(M3*M4)/(M3+M4)</f>
-        <v>1.664076259889836E-3</v>
+        <v>1.4208530310532801E-3</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="6"/>
-        <v>1.664076259889836E-3</v>
+        <v>1.4208215203063543E-3</v>
       </c>
     </row>
   </sheetData>
@@ -14017,10 +14261,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8079D813-A613-E549-8B33-6FBC6C5C3560}">
-  <dimension ref="A2:K8"/>
+  <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14056,25 +14300,25 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>0.99945448673630277</v>
+        <v>0.99941640254575259</v>
       </c>
       <c r="D3" s="2">
-        <v>0.99432743634605691</v>
+        <v>0.9939246262549889</v>
       </c>
       <c r="E3" s="2">
-        <v>0.8766335124130602</v>
+        <v>0.85193568975736045</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="2">
-        <v>0.47612962117754448</v>
+        <v>0.52956904687008488</v>
       </c>
       <c r="J3" s="2">
-        <v>7.7178887270265895E-2</v>
+        <v>9.1620232914412764E-2</v>
       </c>
       <c r="K3" s="2">
-        <v>3.8313591181111523E-3</v>
+        <v>4.0943040773429125E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14082,25 +14326,51 @@
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>0.99980030559186661</v>
+        <v>0.99975925029425217</v>
       </c>
       <c r="D4" s="2">
-        <v>0.98447983703207653</v>
+        <v>0.98104442696393102</v>
       </c>
       <c r="E4" s="2">
-        <v>0.91114877314436127</v>
+        <v>0.36905795468449498</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="2">
-        <v>0.77152209492635027</v>
+        <v>0.79641185647425894</v>
       </c>
       <c r="J4" s="2">
-        <v>2.9135858215273466E-2</v>
+        <v>3.0813682456601911E-2</v>
       </c>
       <c r="K4" s="2">
-        <v>5.2054341424848938E-3</v>
+        <v>9.6362504364398823E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.92949932395907198</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.70050033121396116</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.70049567172291716</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.9948500837629856E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.1096710144108899E-4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7.1095132208124972E-4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14134,25 +14404,25 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>0.94219653179190754</v>
+        <v>0.93088194636439037</v>
       </c>
       <c r="D7" s="2">
-        <v>0.94743497109826591</v>
+        <v>0.93419961293889964</v>
       </c>
       <c r="E7" s="2">
-        <v>0.95177023121387283</v>
+        <v>0.9343378490461709</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="2">
-        <v>0.63258747195439946</v>
+        <v>0.67508771929824551</v>
       </c>
       <c r="J7" s="2">
-        <v>0.1427307980134703</v>
+        <v>0.16687449842582877</v>
       </c>
       <c r="K7" s="2">
-        <v>7.6319955734715367E-3</v>
+        <v>8.1528819152939819E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14160,25 +14430,51 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>0.85151734104046239</v>
+        <v>0.84683439314348907</v>
       </c>
       <c r="D8" s="2">
-        <v>0.93244219653179194</v>
+        <v>0.92286425214265966</v>
       </c>
       <c r="E8" s="2">
-        <v>0.93244219653179194</v>
+        <v>0.9343378490461709</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="2">
-        <v>0.80954834277863641</v>
+        <v>0.8208495243199786</v>
       </c>
       <c r="J8" s="2">
-        <v>5.6506080807417383E-2</v>
+        <v>5.963616223966127E-2</v>
       </c>
       <c r="K8" s="2">
-        <v>1.0353071424560165E-2</v>
+        <v>1.925264474626259E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.93419961293889964</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.9343378490461709</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.9343378490461709</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7.9556798704111809E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.4208530310532801E-3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.4208215203063543E-3</v>
       </c>
     </row>
   </sheetData>
